--- a/example_files/xlsx/1_threshold_application/output/deleted_otus.xlsx
+++ b/example_files/xlsx/1_threshold_application/output/deleted_otus.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,17 +555,17 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
       <c r="I3" t="n">
-        <v>99.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Equus caballus</t>
+          <t xml:space="preserve">Canis lupus </t>
         </is>
       </c>
     </row>
@@ -597,17 +597,17 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Leopardus pardalis</t>
+          <t>Equus caballus</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>100</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Leopardus pardalis</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -681,17 +681,17 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>100</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>plant junction region</t>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
@@ -708,32 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
       <c r="I7" t="n">
-        <v>98.56</v>
+        <v>100</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Gallus gallus</t>
+          <t>plant junction region</t>
         </is>
       </c>
     </row>
@@ -765,17 +765,17 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>97.81</v>
+        <v>100</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Gymnogyps californianus</t>
+          <t>Pecari tajacu</t>
         </is>
       </c>
     </row>
@@ -807,17 +807,17 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
         <v>100</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Streptopelia decaocto</t>
+          <t>Didelphis albiventris</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P3_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -849,13 +849,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>98.56</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -876,12 +876,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>P3_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -891,17 +891,17 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>97.81</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Nycticorax nycticorax</t>
+          <t>Gymnogyps californianus</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -933,17 +933,17 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>100</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Streptopelia decaocto</t>
         </is>
       </c>
     </row>
@@ -960,12 +960,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P3_MQ</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -975,17 +975,17 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
         <v>100</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Hydrochoerus hydrochaeris</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P3_MQ</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1020,14 +1020,14 @@
         <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>98.52</v>
+        <v>100</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Zaedyus pichiy</t>
+          <t>Gallus gallus</t>
         </is>
       </c>
     </row>
@@ -1044,12 +1044,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P3_MQ</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1059,17 +1059,17 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>100</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Gallus gallus</t>
+          <t>Nycticorax nycticorax</t>
         </is>
       </c>
     </row>
@@ -1086,32 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>99.25</v>
+        <v>100</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Zaedyus pichiy</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -1128,32 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>100</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Gallus gallus</t>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>99.27</v>
+        <v>98.52</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Rhea americana</t>
+          <t>Zaedyus pichiy</t>
         </is>
       </c>
     </row>
@@ -1212,32 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>96.34999999999999</v>
+        <v>100</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Turdus rufiventris</t>
+          <t>Gallus gallus</t>
         </is>
       </c>
     </row>
@@ -1254,12 +1254,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1269,17 +1269,17 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>99.26000000000001</v>
+        <v>99.25</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Canis lupaster</t>
+          <t>Zaedyus pichiy</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t xml:space="preserve">P4_MC </t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1311,17 +1311,17 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
         <v>100</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Nycticorax nycticorax</t>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1353,24 +1353,24 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>99.25</v>
+        <v>100</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Gallus gallus</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P09</t>
+          <t>P08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1395,24 +1395,24 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>100</v>
+        <v>99.27</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Rhea americana</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P09</t>
+          <t>P08</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1422,12 +1422,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1437,24 +1437,24 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>100</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hydrochoerus hydrochaeris</t>
+          <t>Turdus rufiventris</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P09</t>
+          <t>P08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1479,24 +1479,24 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>98.52</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Lama guanicoe</t>
+          <t>Canis lupaster</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P09</t>
+          <t>P08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1521,24 +1521,24 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>97.76000000000001</v>
+        <v>100</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Nycticorax nycticorax</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P09</t>
+          <t>P08</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1548,32 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>100</v>
+        <v>99.25</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Rhea americana</t>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
@@ -1590,32 +1590,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
         <v>100</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sturnira lilium</t>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
@@ -1632,32 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
         <v>100</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hydrochoerus hydrochaeris</t>
         </is>
       </c>
     </row>
@@ -1674,32 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>99.26000000000001</v>
+        <v>98.52</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Sapajus apella</t>
+          <t>Lama guanicoe</t>
         </is>
       </c>
     </row>
@@ -1716,32 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
         <v>6</v>
       </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>8</v>
-      </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>99.23999999999999</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1773,17 +1773,17 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>99.25</v>
+        <v>100</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Rhea americana</t>
         </is>
       </c>
     </row>
@@ -1800,12 +1800,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1815,17 +1815,17 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56</v>
+        <v>100</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Callicebus cupreus</t>
+          <t>Sturnira lilium</t>
         </is>
       </c>
     </row>
@@ -1842,12 +1842,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1857,17 +1857,17 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I34" t="n">
-        <v>98.52</v>
+        <v>98.55</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Columba livia</t>
         </is>
       </c>
     </row>
@@ -1884,12 +1884,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1899,17 +1899,17 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
-        <v>92.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Hemiodopsis gracilis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -1926,12 +1926,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1941,17 +1941,17 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>90.3</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Myotis adversus</t>
+          <t>Sapajus apella</t>
         </is>
       </c>
     </row>
@@ -1968,12 +1968,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1983,17 +1983,17 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>100</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Rhea americana</t>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -2010,12 +2010,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2025,13 +2025,13 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>100</v>
+        <v>99.25</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2067,10 +2067,10 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>95.56</v>
@@ -2094,12 +2094,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2109,17 +2109,17 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>100</v>
+        <v>98.52</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Lama guanicoe</t>
+          <t>Canis lupus</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2136,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2151,17 +2151,17 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>100</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Leopardus pardalis</t>
+          <t>Hemiodopsis gracilis</t>
         </is>
       </c>
     </row>
@@ -2178,12 +2178,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2193,17 +2193,17 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>100</v>
+        <v>90.3</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Myotis adversus</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>P7_MQ</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>99.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Camelidae sp.</t>
+          <t>Rhea americana</t>
         </is>
       </c>
     </row>
@@ -2262,32 +2262,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
         <v>100</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Rhea americana</t>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
     </row>
@@ -2304,32 +2304,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>100</v>
+        <v>95.56</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Gallus gallus</t>
+          <t>Callicebus cupreus</t>
         </is>
       </c>
     </row>
@@ -2346,22 +2346,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H46" t="n">
         <v>4</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tapirus terrestris </t>
+          <t>Lama guanicoe</t>
         </is>
       </c>
     </row>
@@ -2388,226 +2388,226 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
       </c>
       <c r="G47" t="n">
+        <v>15</v>
+      </c>
+      <c r="H47" t="n">
         <v>6</v>
       </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
       <c r="I47" t="n">
         <v>100</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Nomascus leucogenys</t>
+          <t>Leopardus pardalis</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16SrRNA</t>
+          <t>12SrRNA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>P1_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>100</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cavia porcellus</t>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16SrRNA</t>
+          <t>12SrRNA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>P1_MQ</t>
+          <t>P7_MQ</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>100</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Camelidae sp.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16SrRNA</t>
+          <t>12SrRNA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>P1_MQ</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>96.34999999999999</v>
+        <v>100</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sylvilagus floridanus</t>
+          <t>Rhea americana</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16SrRNA</t>
+          <t>12SrRNA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Callicebus lugens</t>
+          <t>Gallus gallus</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16SrRNA</t>
+          <t>12SrRNA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -2616,56 +2616,56 @@
         <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
         <v>100</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t xml:space="preserve">Tapirus terrestris </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16SrRNA</t>
+          <t>12SrRNA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>99.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Nomascus leucogenys</t>
         </is>
       </c>
     </row>
@@ -2682,32 +2682,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P1_MQ</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
         <v>6</v>
       </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
       <c r="I54" t="n">
         <v>100</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Alouatta guariba</t>
         </is>
       </c>
     </row>
@@ -2724,28 +2724,28 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P1_MQ</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I55" t="n">
-        <v>94.56999999999999</v>
+        <v>100</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2766,22 +2766,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P1_MQ</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
         <v>2</v>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Cavia porcellus</t>
         </is>
       </c>
     </row>
@@ -2808,32 +2808,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P1_MQ</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>96.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
     </row>
@@ -2850,32 +2850,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P1_MQ</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>96.20999999999999</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sylvilagus floridanus</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2907,17 +2907,17 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>99.23999999999999</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Callicebus lugens</t>
         </is>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2991,17 +2991,17 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>95.42</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3033,17 +3033,17 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>96.95</v>
+        <v>100</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Cuon alpinus</t>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
@@ -3060,32 +3060,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>P3_MQ</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
         <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>99.28</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -3102,22 +3102,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H64" t="n">
         <v>2</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -3144,32 +3144,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>8</v>
+      </c>
+      <c r="H65" t="n">
         <v>3</v>
       </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="n">
-        <v>5</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
       <c r="I65" t="n">
-        <v>97.52</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pseudalopex culpaeus </t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -3186,32 +3186,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9</v>
+      </c>
+      <c r="H66" t="n">
         <v>3</v>
       </c>
-      <c r="F66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" t="n">
-        <v>8</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
       <c r="I66" t="n">
-        <v>94.06999999999999</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -3228,32 +3228,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>10</v>
+      </c>
+      <c r="H67" t="n">
         <v>3</v>
       </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v>9</v>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
-      </c>
       <c r="I67" t="n">
-        <v>100</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -3270,32 +3270,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H68" t="n">
         <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>97.83</v>
+        <v>100</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Bradypus tridactylus</t>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -3312,32 +3312,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
         <v>3</v>
       </c>
-      <c r="F69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" t="n">
-        <v>4</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
       <c r="I69" t="n">
-        <v>100</v>
+        <v>95.42</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -3354,32 +3354,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>100</v>
+        <v>96.95</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Cuon alpinus</t>
         </is>
       </c>
     </row>
@@ -3396,32 +3396,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P3_MQ</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>97.70999999999999</v>
+        <v>99.28</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
     </row>
@@ -3438,16 +3438,16 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -3459,11 +3459,11 @@
         <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>99.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Bradypus tridactylus</t>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
     </row>
@@ -3480,32 +3480,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>100</v>
+        <v>97.52</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t xml:space="preserve">Pseudalopex culpaeus </t>
         </is>
       </c>
     </row>
@@ -3522,32 +3522,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>99.27</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
@@ -3564,32 +3564,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>97.76000000000001</v>
+        <v>100</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
@@ -3606,32 +3606,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>100</v>
+        <v>97.83</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Bradypus tridactylus</t>
         </is>
       </c>
     </row>
@@ -3648,32 +3648,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H77" t="n">
         <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>97.81</v>
+        <v>100</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Chrysocyon brachyurus</t>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
@@ -3690,22 +3690,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H78" t="n">
         <v>3</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3747,17 +3747,17 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>95.77</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Sylvilagus floridanus</t>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -3774,12 +3774,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3789,17 +3789,17 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>90.65000000000001</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Tamandua mexicana</t>
+          <t>Bradypus tridactylus</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3831,17 +3831,17 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>93.23</v>
+        <v>100</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Callicebus lugens</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -3858,12 +3858,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3873,17 +3873,17 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I82" t="n">
-        <v>100</v>
+        <v>99.27</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
@@ -3900,12 +3900,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3915,24 +3915,24 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I83" t="n">
-        <v>97.70999999999999</v>
+        <v>97.06</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Myocastor coypus</t>
+          <t xml:space="preserve">Callithrix emiliae </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3942,12 +3942,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3957,24 +3957,24 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H84" t="n">
         <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>100</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3984,12 +3984,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -4002,21 +4002,21 @@
         <v>8</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
         <v>100</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4026,39 +4026,39 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>P5_MQ</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H86" t="n">
         <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>99.22</v>
+        <v>97.81</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Dasypus sabanicola</t>
+          <t>Chrysocyon brachyurus</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4068,39 +4068,39 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>96.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4110,39 +4110,39 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I88" t="n">
-        <v>100</v>
+        <v>95.77</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Sylvilagus floridanus</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4152,39 +4152,39 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>90</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Alouatta palliata</t>
+          <t>Tamandua mexicana</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4194,28 +4194,28 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>92.48</v>
+        <v>93.23</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4236,39 +4236,39 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>92.37</v>
+        <v>100</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Callicebus nigrifrons</t>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4278,32 +4278,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
         <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>98.45</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Myocastor coypus</t>
         </is>
       </c>
     </row>
@@ -4320,28 +4320,28 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I93" t="n">
-        <v>99.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4362,32 +4362,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>93.23</v>
+        <v>100</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Cheracebus purinus</t>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
     </row>
@@ -4404,32 +4404,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95" t="n">
-        <v>89.31</v>
+        <v>100</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Hylobates syndactylus</t>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
     </row>
@@ -4446,32 +4446,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P5_MQ</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>100</v>
+        <v>99.22</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Lama glama</t>
+          <t>Dasypus sabanicola</t>
         </is>
       </c>
     </row>
@@ -4488,12 +4488,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4503,17 +4503,17 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I97" t="n">
-        <v>98.47</v>
+        <v>100</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -4530,12 +4530,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4545,17 +4545,17 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H98" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>100</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
     </row>
@@ -4572,12 +4572,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -4587,10 +4587,10 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I99" t="n">
         <v>100</v>
@@ -4614,12 +4614,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -4632,14 +4632,14 @@
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>98.40000000000001</v>
+        <v>90</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Alouatta palliata</t>
         </is>
       </c>
     </row>
@@ -4656,12 +4656,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4671,17 +4671,17 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>100</v>
+        <v>92.48</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Chiropotes albinasus</t>
+          <t>Callicebus lugens</t>
         </is>
       </c>
     </row>
@@ -4698,12 +4698,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4713,17 +4713,17 @@
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>100</v>
+        <v>92.37</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Lama glama</t>
+          <t>Callicebus nigrifrons</t>
         </is>
       </c>
     </row>
@@ -4740,12 +4740,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -4755,17 +4755,17 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>100</v>
+        <v>98.45</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Leopardus pardalis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -4782,32 +4782,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>P7_MQ</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E104" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
         <v>7</v>
       </c>
-      <c r="F104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" t="n">
-        <v>3</v>
-      </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I104" t="n">
-        <v>100</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -4824,32 +4824,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>P7_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H105" t="n">
         <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>100</v>
+        <v>93.23</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Lama glama</t>
+          <t>Cheracebus purinus</t>
         </is>
       </c>
     </row>
@@ -4866,32 +4866,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>P8_MQ</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I106" t="n">
-        <v>100</v>
+        <v>89.31</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Ateles belzebuth</t>
+          <t>Hylobates syndactylus</t>
         </is>
       </c>
     </row>
@@ -4908,32 +4908,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>P8_MQ</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H107" t="n">
         <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>98.45999999999999</v>
+        <v>100</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Lama glama</t>
         </is>
       </c>
     </row>
@@ -4950,32 +4950,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>P8_MQ</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>100</v>
+        <v>98.47</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Plecturocebus moloch</t>
         </is>
       </c>
     </row>
@@ -4992,32 +4992,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I109" t="n">
-        <v>99.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Lama glama</t>
+          <t>Rattus hoogerwerfi</t>
         </is>
       </c>
     </row>
@@ -5034,32 +5034,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I110" t="n">
-        <v>99.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -5076,32 +5076,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I111" t="n">
-        <v>97.52</v>
+        <v>100</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
     </row>
@@ -5118,32 +5118,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>97.52</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pseudalopex culpaeus </t>
+          <t>Plecturocebus moloch</t>
         </is>
       </c>
     </row>
@@ -5160,32 +5160,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113" t="n">
-        <v>99.23</v>
+        <v>100</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Chiropotes albinasus</t>
         </is>
       </c>
     </row>
@@ -5202,22 +5202,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H114" t="n">
         <v>2</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Lama glama</t>
         </is>
       </c>
     </row>
@@ -5244,30 +5244,576 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>TK</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>P6_MC</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>12</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>100</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Leopardus pardalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>TK</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>P6_MC</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>6</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>13</v>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+      <c r="I116" t="n">
+        <v>99.23999999999999</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Pecari tajacu</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>TM</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>P7_MQ</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>7</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="n">
+        <v>100</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Hydrochaeris hydrochaeris</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>P7_MC</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" t="n">
+        <v>100</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Lama glama</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>P8_MQ</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>8</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" t="n">
+        <v>100</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>P8_MQ</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+      <c r="I120" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Plecturocebus moloch</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>P8_MQ</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" t="n">
+        <v>100</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>P8_MC</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" t="n">
+        <v>99.23999999999999</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Lama glama</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>P8_MC</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>99.26000000000001</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Tapirus terrestris</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>P8_MC</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+      <c r="I124" t="n">
+        <v>97.52</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
           <t>TY</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>P8_MC</t>
         </is>
       </c>
-      <c r="E115" t="n">
+      <c r="E125" t="n">
         <v>8</v>
       </c>
-      <c r="F115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" t="n">
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3</v>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+      <c r="I125" t="n">
+        <v>97.52</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudalopex culpaeus </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>TY</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>P8_MC</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>99.23</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Puma concolor</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>TY</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>P8_MC</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" t="n">
+        <v>100</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>16SrRNA</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>TY</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>P8_MC</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
         <v>6</v>
       </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" t="n">
         <v>99.25</v>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>Tamandua tetradactyla</t>
         </is>
